--- a/app/library/WC-random.xlsx
+++ b/app/library/WC-random.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mocs698-my.sharepoint.com/personal/jmikec_viktor_ai/Documents/Documents/Viktor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmikec\viktor-apps\ETABS-Connection-Designer\app\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{4290D027-78B6-4F35-9E5D-E1B941D9173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD385A77-86D1-406F-9442-2C1B6D4192F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52562373-A496-43ED-8771-517D6F389017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{301CDEC0-F6F0-42D9-B5E5-C567897D6134}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{301CDEC0-F6F0-42D9-B5E5-C567897D6134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,10 +269,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C4FA5A-0896-4C13-97BC-9DDF3B6C7622}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +603,7 @@
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -633,7 +629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -647,10 +643,12 @@
         <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>49.183450847413027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -664,10 +662,12 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>61.605782868472772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -680,11 +680,12 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1">
-        <v>83.386287057283653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>83</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -697,11 +698,12 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1">
-        <v>53.319900462862961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -714,11 +716,12 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1">
-        <v>70.594011699939614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -731,11 +734,12 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1">
-        <v>79.712187631046518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -748,11 +752,12 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1">
-        <v>96.326993443366206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -765,11 +770,12 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
-        <v>60.501077269594298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -782,11 +788,12 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
-        <v>79.744832722441814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -799,11 +806,12 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
-        <v>102.45756615310547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>102</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -816,11 +824,12 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1">
-        <v>103.01195908659807</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>103</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -833,11 +842,12 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1">
-        <v>115.15940963281727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>115</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -850,11 +860,12 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1">
-        <v>119.4295416391252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -867,11 +878,12 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="1">
-        <v>190.67848429767974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>191</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -884,11 +896,12 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="1">
-        <v>183.2646342462219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>183</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -901,11 +914,12 @@
       <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="1">
-        <v>213.92183560646268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>214</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -918,11 +932,12 @@
       <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="1">
-        <v>185.86659875655187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>186</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -935,11 +950,12 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="1">
-        <v>212.11954105986015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>212</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -952,11 +968,12 @@
       <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="1">
-        <v>261.10035772570598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>261</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -969,11 +986,12 @@
       <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="1">
-        <v>282.01664545431072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>282</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -986,11 +1004,12 @@
       <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="1">
-        <v>254.5245520456395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>255</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1003,11 +1022,12 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="1">
-        <v>374.30594361507497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>374</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1020,11 +1040,12 @@
       <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="1">
-        <v>406.12186559095829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>406</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1037,11 +1058,12 @@
       <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="1">
-        <v>363.50442046207183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>364</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1054,11 +1076,12 @@
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="1">
-        <v>390.56417850585939</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>391</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1071,11 +1094,12 @@
       <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="1">
-        <v>411.90520389061697</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>412</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1088,11 +1112,12 @@
       <c r="D28" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="1">
-        <v>374.92662714268954</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>375</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1105,11 +1130,12 @@
       <c r="D29" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="1">
-        <v>352.0702309921279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>352</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1122,11 +1148,12 @@
       <c r="D30" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="1">
-        <v>393.82429309379899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>394</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1139,11 +1166,12 @@
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="1">
-        <v>354.6456325141063</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>355</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1156,11 +1184,12 @@
       <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="1">
-        <v>495.39599815965801</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>495</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1173,11 +1202,12 @@
       <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="1">
-        <v>438.53366541496985</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>439</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -1190,11 +1220,12 @@
       <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="1">
-        <v>451.40317589989468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>451</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1207,11 +1238,12 @@
       <c r="D35" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="1">
-        <v>476.82450192847494</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>477</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1224,11 +1256,12 @@
       <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="1">
-        <v>599.99613338415361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>600</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1241,11 +1274,12 @@
       <c r="D37" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="1">
-        <v>536.51936772041324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>537</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1258,11 +1292,12 @@
       <c r="D38" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="1">
-        <v>574.95946046236907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>575</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1275,11 +1310,12 @@
       <c r="D39" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="1">
-        <v>593.96541842245051</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>594</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -1292,11 +1328,12 @@
       <c r="D40" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="1">
-        <v>847.45645813248416</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>847</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -1309,11 +1346,12 @@
       <c r="D41" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="1">
-        <v>833.15258965072951</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>833</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -1326,11 +1364,12 @@
       <c r="D42" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="1">
-        <v>853.93102787213991</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>854</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1343,11 +1382,12 @@
       <c r="D43" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="1">
-        <v>790.27712131030137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>790</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -1360,11 +1400,12 @@
       <c r="D44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="1">
-        <v>891.0586951178318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>891</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1377,11 +1418,12 @@
       <c r="D45" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="1">
-        <v>942.78862866411293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>943</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1394,11 +1436,12 @@
       <c r="D46" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="1">
-        <v>965.50472044279229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>966</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1411,11 +1454,12 @@
       <c r="D47" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="1">
-        <v>846.17913979156106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>846</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1428,11 +1472,12 @@
       <c r="D48" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="1">
-        <v>878.03294502897484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>878</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1445,11 +1490,12 @@
       <c r="D49" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="1">
-        <v>865.78249401204243</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>866</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1462,11 +1508,12 @@
       <c r="D50" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="1">
-        <v>874.68380957032423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>875</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1479,11 +1526,12 @@
       <c r="D51" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="1">
-        <v>51.490359728810745</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>51</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1496,11 +1544,12 @@
       <c r="D52" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="1">
-        <v>62.152366175188298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>62</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1513,11 +1562,12 @@
       <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="1">
-        <v>83.300253824264601</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>83</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1530,11 +1580,12 @@
       <c r="D54" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="1">
-        <v>132.41193286036105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>132</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1547,11 +1598,12 @@
       <c r="D55" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="1">
-        <v>178.66988362317539</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>179</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1564,11 +1616,12 @@
       <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="1">
-        <v>193.22842461428581</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>193</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -1581,11 +1634,12 @@
       <c r="D57" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="1">
-        <v>199.0363435816962</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>199</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -1598,11 +1652,12 @@
       <c r="D58" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="1">
-        <v>238.38126506353728</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>238</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -1615,11 +1670,12 @@
       <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="1">
-        <v>247.17838195211556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>247</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -1632,11 +1688,12 @@
       <c r="D60" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="1">
-        <v>385.64293694050929</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>386</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -1649,11 +1706,12 @@
       <c r="D61" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="1">
-        <v>382.3107011774955</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>382</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -1666,11 +1724,12 @@
       <c r="D62" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="1">
-        <v>382.13043963201699</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>382</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -1683,11 +1742,12 @@
       <c r="D63" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="1">
-        <v>386.47604468295077</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>386</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -1700,11 +1760,12 @@
       <c r="D64" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="1">
-        <v>367.43001414201575</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>367</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>54</v>
       </c>
@@ -1717,11 +1778,12 @@
       <c r="D65" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="1">
-        <v>520.60219125905985</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>521</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -1734,11 +1796,12 @@
       <c r="D66" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="1">
-        <v>482.40874986788492</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>482</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -1751,11 +1814,12 @@
       <c r="D67" t="s">
         <v>27</v>
       </c>
-      <c r="F67" s="1">
-        <v>458.76839512481382</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>459</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -1768,11 +1832,12 @@
       <c r="D68" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="1">
-        <v>464.51767095450799</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>465</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>54</v>
       </c>
@@ -1785,11 +1850,12 @@
       <c r="D69" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="1">
-        <v>472.37828785232432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>472</v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>54</v>
       </c>
@@ -1802,11 +1868,12 @@
       <c r="D70" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="1">
-        <v>462.88287256767939</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>463</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -1819,11 +1886,12 @@
       <c r="D71" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="1">
-        <v>471.21661725495977</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>471</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>54</v>
       </c>
@@ -1836,11 +1904,12 @@
       <c r="D72" t="s">
         <v>32</v>
       </c>
-      <c r="F72" s="1">
-        <v>527.89967363267624</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>528</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -1853,11 +1922,12 @@
       <c r="D73" t="s">
         <v>33</v>
       </c>
-      <c r="F73" s="1">
-        <v>577.11967886047353</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>577</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -1870,11 +1940,12 @@
       <c r="D74" t="s">
         <v>34</v>
       </c>
-      <c r="F74" s="1">
-        <v>521.77597967758231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>522</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>54</v>
       </c>
@@ -1887,11 +1958,12 @@
       <c r="D75" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="1">
-        <v>595.68511485189345</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>596</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -1904,11 +1976,12 @@
       <c r="D76" t="s">
         <v>36</v>
       </c>
-      <c r="F76" s="1">
-        <v>808.65653324440927</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>809</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -1921,11 +1994,12 @@
       <c r="D77" t="s">
         <v>37</v>
       </c>
-      <c r="F77" s="1">
-        <v>809.87928096672601</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>810</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -1938,11 +2012,12 @@
       <c r="D78" t="s">
         <v>38</v>
       </c>
-      <c r="F78" s="1">
-        <v>788.90372312799673</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>789</v>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>54</v>
       </c>
@@ -1955,11 +2030,12 @@
       <c r="D79" t="s">
         <v>39</v>
       </c>
-      <c r="F79" s="1">
-        <v>735.82787724249454</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>736</v>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>54</v>
       </c>
@@ -1972,11 +2048,12 @@
       <c r="D80" t="s">
         <v>41</v>
       </c>
-      <c r="F80" s="1">
-        <v>1028.4817762936748</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>1028</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -1989,11 +2066,12 @@
       <c r="D81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="1">
-        <v>1058.9039082257855</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>1059</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -2006,11 +2084,12 @@
       <c r="D82" t="s">
         <v>43</v>
       </c>
-      <c r="F82" s="1">
-        <v>993.08529258517876</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>993</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -2023,11 +2102,12 @@
       <c r="D83" t="s">
         <v>44</v>
       </c>
-      <c r="F83" s="1">
-        <v>1316.4820495997717</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>1316</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -2040,11 +2120,12 @@
       <c r="D84" t="s">
         <v>45</v>
       </c>
-      <c r="F84" s="1">
-        <v>1229.658962222537</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>1230</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>54</v>
       </c>
@@ -2057,11 +2138,12 @@
       <c r="D85" t="s">
         <v>46</v>
       </c>
-      <c r="F85" s="1">
-        <v>1228.2359462429708</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>1228</v>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -2074,11 +2156,12 @@
       <c r="D86" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="1">
-        <v>1313.2691700829889</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>1313</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>54</v>
       </c>
@@ -2091,11 +2174,12 @@
       <c r="D87" t="s">
         <v>48</v>
       </c>
-      <c r="F87" s="1">
-        <v>1196.2663306408992</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>1196</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -2108,11 +2192,12 @@
       <c r="D88" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="1">
-        <v>1119.2500435641452</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>1119</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -2125,11 +2210,12 @@
       <c r="D89" t="s">
         <v>50</v>
       </c>
-      <c r="F89" s="1">
-        <v>1190.6813888983054</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>1191</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>54</v>
       </c>
@@ -2142,11 +2228,12 @@
       <c r="D90" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="1">
-        <v>269.49227198204215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>269</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -2159,11 +2246,12 @@
       <c r="D91" t="s">
         <v>20</v>
       </c>
-      <c r="F91" s="1">
-        <v>384.34497354552889</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>384</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -2176,11 +2264,12 @@
       <c r="D92" t="s">
         <v>21</v>
       </c>
-      <c r="F92" s="1">
-        <v>354.94043408921681</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>355</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>54</v>
       </c>
@@ -2193,11 +2282,12 @@
       <c r="D93" t="s">
         <v>23</v>
       </c>
-      <c r="F93" s="1">
-        <v>480.43625324739105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>480</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -2210,11 +2300,12 @@
       <c r="D94" t="s">
         <v>24</v>
       </c>
-      <c r="F94" s="1">
-        <v>443.8177841551165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>444</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -2227,11 +2318,12 @@
       <c r="D95" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="1">
-        <v>590.95075130703128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>591</v>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -2244,11 +2336,12 @@
       <c r="D96" t="s">
         <v>26</v>
       </c>
-      <c r="F96" s="1">
-        <v>571.12640217696548</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>571</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>54</v>
       </c>
@@ -2261,11 +2354,12 @@
       <c r="D97" t="s">
         <v>28</v>
       </c>
-      <c r="F97" s="1">
-        <v>524.24732043164124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>524</v>
+      </c>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>54</v>
       </c>
@@ -2278,11 +2372,12 @@
       <c r="D98" t="s">
         <v>29</v>
       </c>
-      <c r="F98" s="1">
-        <v>532.48329182192549</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>532</v>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>54</v>
       </c>
@@ -2295,11 +2390,12 @@
       <c r="D99" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="1">
-        <v>525.60738313459046</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>526</v>
+      </c>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -2312,11 +2408,12 @@
       <c r="D100" t="s">
         <v>31</v>
       </c>
-      <c r="F100" s="1">
-        <v>614.40965250241015</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>614</v>
+      </c>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>54</v>
       </c>
@@ -2329,11 +2426,12 @@
       <c r="D101" t="s">
         <v>32</v>
       </c>
-      <c r="F101" s="1">
-        <v>703.70866108233122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>704</v>
+      </c>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -2346,11 +2444,12 @@
       <c r="D102" t="s">
         <v>33</v>
       </c>
-      <c r="F102" s="1">
-        <v>714.75662853529786</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>715</v>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -2363,11 +2462,12 @@
       <c r="D103" t="s">
         <v>34</v>
       </c>
-      <c r="F103" s="1">
-        <v>606.6446506651605</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>607</v>
+      </c>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>54</v>
       </c>
@@ -2380,11 +2480,12 @@
       <c r="D104" t="s">
         <v>35</v>
       </c>
-      <c r="F104" s="1">
-        <v>673.78322068795364</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>674</v>
+      </c>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -2397,11 +2498,12 @@
       <c r="D105" t="s">
         <v>36</v>
       </c>
-      <c r="F105" s="1">
-        <v>876.03268545358446</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>876</v>
+      </c>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>54</v>
       </c>
@@ -2414,11 +2516,12 @@
       <c r="D106" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="1">
-        <v>837.79559648043403</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>838</v>
+      </c>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -2431,11 +2534,12 @@
       <c r="D107" t="s">
         <v>38</v>
       </c>
-      <c r="F107" s="1">
-        <v>915.9585340716643</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>916</v>
+      </c>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>54</v>
       </c>
@@ -2448,11 +2552,12 @@
       <c r="D108" t="s">
         <v>39</v>
       </c>
-      <c r="F108" s="1">
-        <v>982.62772329105462</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>983</v>
+      </c>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>54</v>
       </c>
@@ -2465,11 +2570,12 @@
       <c r="D109" t="s">
         <v>28</v>
       </c>
-      <c r="F109" s="1">
-        <v>658.76372142826006</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>659</v>
+      </c>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>54</v>
       </c>
@@ -2482,11 +2588,12 @@
       <c r="D110" t="s">
         <v>29</v>
       </c>
-      <c r="F110" s="1">
-        <v>625.37905133561787</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>625</v>
+      </c>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>54</v>
       </c>
@@ -2499,11 +2606,12 @@
       <c r="D111" t="s">
         <v>30</v>
       </c>
-      <c r="F111" s="1">
-        <v>643.08061755834865</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>643</v>
+      </c>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>54</v>
       </c>
@@ -2516,11 +2624,12 @@
       <c r="D112" t="s">
         <v>31</v>
       </c>
-      <c r="F112" s="1">
-        <v>630.25639332510104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>630</v>
+      </c>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>54</v>
       </c>
@@ -2533,11 +2642,12 @@
       <c r="D113" t="s">
         <v>33</v>
       </c>
-      <c r="F113" s="1">
-        <v>753.25575604562312</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>753</v>
+      </c>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>54</v>
       </c>
@@ -2550,11 +2660,12 @@
       <c r="D114" t="s">
         <v>34</v>
       </c>
-      <c r="F114" s="1">
-        <v>762.95908260633234</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>763</v>
+      </c>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>54</v>
       </c>
@@ -2567,9 +2678,10 @@
       <c r="D115" t="s">
         <v>35</v>
       </c>
-      <c r="F115" s="1">
-        <v>850.64470571804202</v>
-      </c>
+      <c r="F115">
+        <v>851</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D115" xr:uid="{11C4FA5A-0896-4C13-97BC-9DDF3B6C7622}"/>
